--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.425</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>0.425</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.525</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.525</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.425</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.425</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.325</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0.525</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.325</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.675</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0.525</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0.275</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.575</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>0.275</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>0.325</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.575</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.575</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.575</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.42105263157894735</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5789473684210527</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5263157894736842</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.631578947368421</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.3684210526315789</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.3684210526315789</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5263157894736842</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.5263157894736842</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.3684210526315789</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.631578947368421</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.5263157894736842</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.631578947368421</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.47368421052631576</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.47368421052631576</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.5789473684210527</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.47368421052631576</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.2631578947368421</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.3684210526315789</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.47368421052631576</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.5789473684210527</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.3684210526315789</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.5263157894736842</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0.21052631578947367</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.631578947368421</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0.3684210526315789</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0.47368421052631576</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.2631578947368421</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0.3684210526315789</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>0.2631578947368421</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>0.3157894736842105</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0.42105263157894735</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0.2631578947368421</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0.2631578947368421</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0.2631578947368421</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>0.47368421052631576</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>0.3684210526315789</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3157894736842105</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.15789473684210525</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.47368421052631576</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.15789473684210525</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3684210526315789</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5217391304347826</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5217391304347826</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5217391304347826</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6521739130434783</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.5217391304347826</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6086956521739131</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7391304347826086</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.5217391304347826</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>0.8695652173913043</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.43478260869565216</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.4782608695652174</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.391304347826087</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.8260869565217391</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.4782608695652174</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.5217391304347826</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.21739130434782608</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.4782608695652174</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.43478260869565216</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.30434782608695654</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.34782608695652173</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.2608695652173913</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.4782608695652174</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0.2608695652173913</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0.4782608695652174</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0.4782608695652174</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0.43478260869565216</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.5217391304347826</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>0.4782608695652174</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>0.34782608695652173</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>0.2608695652173913</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>0.21739130434782608</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0.5652173913043478</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0.21739130434782608</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0.043478260869565216</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0.5652173913043478</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>0.2608695652173913</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>0.08695652173913043</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2608695652173913</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.43478260869565216</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.34782608695652173</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.43478260869565216</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5652173913043478</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.43478260869565216</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6086956521739131</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.5555555555555556</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.4444444444444444</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.3888888888888889</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9444444444444444</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.6111111111111112</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.2777777777777778</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.5555555555555556</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.3888888888888889</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.6666666666666666</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.5555555555555556</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.3888888888888889</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.4444444444444444</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.4444444444444444</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.4444444444444444</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.2222222222222222</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.2777777777777778</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.2222222222222222</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.5555555555555556</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.3888888888888889</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0.6111111111111112</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0.6111111111111112</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>0.05555555555555555</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0.3888888888888889</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0.16666666666666666</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0.3888888888888889</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0.2222222222222222</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0.2222222222222222</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1111111111111111</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2777777777777778</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/frequency.xlsx
@@ -670,187 +670,187 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.425</t>
+          <t>0.43243243243243246</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.425</t>
+          <t>0.40540540540540543</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.4594594594594595</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.6486486486486487</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.4594594594594595</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.5135135135135135</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.525</t>
+          <t>0.5405405405405406</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.4594594594594595</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.7567567567567568</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.5405405405405406</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.5405405405405406</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3783783783783784</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.525</t>
+          <t>0.5675675675675675</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5675675675675675</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.6486486486486487</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.40540540540540543</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.43243243243243246</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.6756756756756757</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.3783783783783784</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.425</t>
+          <t>0.40540540540540543</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.425</t>
+          <t>0.4864864864864865</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.3783783783783784</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.325</t>
+          <t>0.2972972972972973</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.525</t>
+          <t>0.5135135135135135</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.325</t>
+          <t>0.35135135135135137</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.40540540540540543</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.675</t>
+          <t>0.7027027027027027</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.525</t>
+          <t>0.5135135135135135</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.40540540540540543</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.3783783783783784</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.2702702702702703</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.2702702702702703</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.6486486486486487</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.16216216216216217</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.40540540540540543</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.575</t>
+          <t>0.5675675675675675</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.275</t>
+          <t>0.2702702702702703</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -860,194 +860,194 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.325</t>
+          <t>0.3783783783783784</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.4594594594594595</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.5135135135135135</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.4864864864864865</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.575</t>
+          <t>0.5945945945945946</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.575</t>
+          <t>0.6216216216216216</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.575</t>
+          <t>0.5675675675675675</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.42105263157894735</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.5789473684210527</t>
+          <t>0.6111111111111112</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5263157894736842</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.631578947368421</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5263157894736842</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.5263157894736842</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.631578947368421</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.5263157894736842</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.631578947368421</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.5789473684210527</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.2777777777777778</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.5789473684210527</t>
+          <t>0.5555555555555556</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.5263157894736842</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.21052631578947367</t>
+          <t>0.2222222222222222</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.631578947368421</t>
+          <t>0.6111111111111112</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.2777777777777778</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.2222222222222222</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.3157894736842105</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.42105263157894735</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1057,27 +1057,27 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.2222222222222222</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.2777777777777778</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.2777777777777778</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1087,224 +1087,224 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.3157894736842105</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.15789473684210525</t>
+          <t>0.1111111111111111</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.4444444444444444</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.15789473684210525</t>
+          <t>0.1111111111111111</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3888888888888889</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.5416666666666666</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.6521739130434783</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.4583333333333333</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.6086956521739131</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7391304347826086</t>
+          <t>0.8333333333333334</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.5416666666666666</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8695652173913043</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.391304347826087</t>
+          <t>0.2916666666666667</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.8260869565217391</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.5833333333333334</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.21739130434782608</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.4583333333333333</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.30434782608695654</t>
+          <t>0.4166666666666667</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.34782608695652173</t>
+          <t>0.4583333333333333</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.20833333333333334</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.2916666666666667</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.5833333333333334</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.5416666666666666</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.34782608695652173</t>
+          <t>0.20833333333333334</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.21739130434782608</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.5652173913043478</t>
+          <t>0.16666666666666666</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.21739130434782608</t>
+          <t>0.4166666666666667</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.043478260869565216</t>
+          <t>0.16666666666666666</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.5652173913043478</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.08695652173913043</t>
+          <t>0.20833333333333334</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1314,264 +1314,264 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.5416666666666666</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.34782608695652173</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.5652173913043478</t>
+          <t>0.4166666666666667</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.2916666666666667</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.6086956521739131</t>
+          <t>0.5416666666666666</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>0.5238095238095238</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.5238095238095238</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.5714285714285714</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.6666666666666666</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.5238095238095238</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.5714285714285714</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7619047619047619</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.5238095238095238</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.8571428571428571</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.42857142857142855</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.47619047619047616</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.42857142857142855</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.8095238095238095</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.47619047619047616</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.5238095238095238</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.19047619047619047</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.47619047619047616</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.42857142857142855</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.2857142857142857</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.38095238095238093</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.19047619047619047</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.47619047619047616</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.23809523809523808</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.47619047619047616</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.47619047619047616</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0.42857142857142855</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.47619047619047616</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0.5238095238095238</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>0.38095238095238093</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>0.2857142857142857</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0.23809523809523808</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0.5714285714285714</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0.14285714285714285</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.5238095238095238</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.23809523809523808</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0.09523809523809523</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0.19047619047619047</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>0.47619047619047616</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.5555555555555556</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.4444444444444444</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.3888888888888889</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9444444444444444</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.6111111111111112</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.2777777777777778</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.5555555555555556</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.3888888888888889</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.5555555555555556</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.3888888888888889</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.4444444444444444</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.4444444444444444</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.4444444444444444</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.2222222222222222</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.2777777777777778</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0.2222222222222222</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.5555555555555556</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0.3888888888888889</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.6111111111111112</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.6111111111111112</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0.05555555555555555</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0.3888888888888889</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0.16666666666666666</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0.3888888888888889</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0.2222222222222222</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>0.2222222222222222</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>0.1111111111111111</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>0.5555555555555556</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.5714285714285714</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.6190476190476191</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.43243243243243246</t>
+          <t>0.08860759493670886</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.40540540540540543</t>
+          <t>0.25316455696202533</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.4594594594594595</t>
+          <t>0.31645569620253167</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.6486486486486487</t>
+          <t>0.21518987341772153</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.4594594594594595</t>
+          <t>0.20253164556962025</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.5135135135135135</t>
+          <t>0.24050632911392406</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5405405405405406</t>
+          <t>0.2911392405063291</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.4594594594594595</t>
+          <t>0.0759493670886076</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.7567567567567568</t>
+          <t>0.11392405063291139</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.5405405405405406</t>
+          <t>0.06329113924050633</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.5405405405405406</t>
+          <t>0.45569620253164556</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.3783783783783784</t>
+          <t>0.0379746835443038</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.5675675675675675</t>
+          <t>0.5822784810126582</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.5675675675675675</t>
+          <t>0.34177215189873417</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.6486486486486487</t>
+          <t>0.22784810126582278</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.40540540540540543</t>
+          <t>0.4177215189873418</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.43243243243243246</t>
+          <t>0.4050632911392405</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.6756756756756757</t>
+          <t>0.5949367088607594</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.3783783783783784</t>
+          <t>0.4050632911392405</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.40540540540540543</t>
+          <t>0.35443037974683544</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.4864864864864865</t>
+          <t>0.0759493670886076</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.3783783783783784</t>
+          <t>0.43037974683544306</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.2972972972972973</t>
+          <t>0.9620253164556962</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.5135135135135135</t>
+          <t>0.4936708860759494</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.35135135135135137</t>
+          <t>0.4430379746835443</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.40540540540540543</t>
+          <t>0.26582278481012656</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.7027027027027027</t>
+          <t>0.3291139240506329</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.5135135135135135</t>
+          <t>0.26582278481012656</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.40540540540540543</t>
+          <t>0.379746835443038</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.3783783783783784</t>
+          <t>0.4050632911392405</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.2702702702702703</t>
+          <t>0.9873417721518988</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.2702702702702703</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.6486486486486487</t>
+          <t>0.12658227848101267</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.16216216216216217</t>
+          <t>0.16455696202531644</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.40540540540540543</t>
+          <t>0.379746835443038</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.5675675675675675</t>
+          <t>0.20253164556962025</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.2702702702702703</t>
+          <t>0.9367088607594937</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.16455696202531644</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.3783783783783784</t>
+          <t>0.24050632911392406</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.4594594594594595</t>
+          <t>0.5569620253164557</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.5135135135135135</t>
+          <t>0.3670886075949367</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.4864864864864865</t>
+          <t>0.4430379746835443</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.5945945945945946</t>
+          <t>0.45569620253164556</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.6216216216216216</t>
+          <t>0.379746835443038</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.5675675675675675</t>
+          <t>0.20253164556962025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.6111111111111112</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.7142857142857143</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.2222222222222222</t>
+          <t>0.8571428571428571</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.6111111111111112</t>
+          <t>0.7142857142857143</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.5714285714285714</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.2222222222222222</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0.2222222222222222</t>
-        </is>
-      </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.7142857142857143</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.5714285714285714</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.1111111111111111</t>
+          <t>0.14285714285714285</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.8571428571428571</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.1111111111111111</t>
+          <t>0.42857142857142855</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.2857142857142857</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.24528301886792453</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.5416666666666666</t>
+          <t>0.4528301886792453</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4716981132075472</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.1509433962264151</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.4583333333333333</t>
+          <t>0.20754716981132076</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.20754716981132076</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8333333333333334</t>
+          <t>0.41509433962264153</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.5416666666666666</t>
+          <t>0.11320754716981132</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.875</t>
+          <t>0.24528301886792453</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.22641509433962265</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.4716981132075472</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.2916666666666667</t>
+          <t>0.05660377358490566</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6792452830188679</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.5283018867924528</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.5833333333333334</t>
+          <t>0.39622641509433965</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>0.49056603773584906</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.32075471698113206</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.4583333333333333</t>
+          <t>0.6037735849056604</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.39622641509433965</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.4583333333333333</t>
+          <t>0.39622641509433965</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.20833333333333334</t>
+          <t>0.11320754716981132</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.5283018867924528</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.2916666666666667</t>
+          <t>0.8490566037735849</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.5833333333333334</t>
+          <t>0.5471698113207547</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.5094339622641509</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>0.16981132075471697</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.6226415094339622</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.5416666666666666</t>
+          <t>0.2641509433962264</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.20833333333333334</t>
+          <t>0.2641509433962264</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.3584905660377358</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.8301886792452831</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.16666666666666666</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.18867924528301888</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.16666666666666666</t>
+          <t>0.4339622641509434</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.33962264150943394</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.20754716981132076</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.20833333333333334</t>
+          <t>0.7547169811320755</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.09433962264150944</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.3584905660377358</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.5416666666666666</t>
+          <t>0.41509433962264153</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.3584905660377358</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.3018867924528302</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.4166666666666667</t>
+          <t>0.5471698113207547</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.2916666666666667</t>
+          <t>0.4528301886792453</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.5416666666666666</t>
+          <t>0.33962264150943394</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.5238095238095238</t>
+          <t>0.4262295081967213</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.5238095238095238</t>
+          <t>0.2459016393442623</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.5714285714285714</t>
+          <t>0.3442622950819672</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.29508196721311475</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.5238095238095238</t>
+          <t>0.2786885245901639</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.5714285714285714</t>
+          <t>0.2786885245901639</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7619047619047619</t>
+          <t>0.21311475409836064</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.5238095238095238</t>
+          <t>0.14754098360655737</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.8571428571428571</t>
+          <t>0.08196721311475409</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.21311475409836064</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.47619047619047616</t>
+          <t>0.5081967213114754</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.03278688524590164</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.8095238095238095</t>
+          <t>0.26229508196721313</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.47619047619047616</t>
+          <t>0.32786885245901637</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.5238095238095238</t>
+          <t>0.36065573770491804</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.19047619047619047</t>
+          <t>0.3770491803278688</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.47619047619047616</t>
+          <t>0.4098360655737705</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.5737704918032787</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.4426229508196721</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.38095238095238093</t>
+          <t>0.29508196721311475</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.19047619047619047</t>
+          <t>0.06557377049180328</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.47619047619047616</t>
+          <t>0.639344262295082</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0.23809523809523808</t>
+          <t>0.9672131147540983</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.47619047619047616</t>
+          <t>0.5573770491803278</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0.47619047619047616</t>
+          <t>0.4262295081967213</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.26229508196721313</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.47619047619047616</t>
+          <t>0.4426229508196721</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.5238095238095238</t>
+          <t>0.45901639344262296</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0.38095238095238093</t>
+          <t>0.3442622950819672</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.2857142857142857</t>
+          <t>0.29508196721311475</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.23809523809523808</t>
+          <t>0.9180327868852459</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.5714285714285714</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.14285714285714285</t>
+          <t>0.2459016393442623</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.19672131147540983</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.5238095238095238</t>
+          <t>0.4262295081967213</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.23809523809523808</t>
+          <t>0.2459016393442623</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.09523809523809523</t>
+          <t>0.7868852459016393</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.19672131147540983</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.19047619047619047</t>
+          <t>0.29508196721311475</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.47619047619047616</t>
+          <t>0.5409836065573771</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.36065573770491804</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.3770491803278688</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.5714285714285714</t>
+          <t>0.6557377049180327</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.42857142857142855</t>
+          <t>0.22950819672131148</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.6190476190476191</t>
+          <t>0.4262295081967213</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.425</t>
+          <t>0.23333333333333334</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.425</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.13333333333333333</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.525</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.13333333333333333</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.4666666666666667</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.6666666666666666</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.43333333333333335</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.5666666666666667</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.16666666666666666</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.3333333333333333</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0.525</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.26666666666666666</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.36666666666666664</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0.36666666666666664</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0.26666666666666666</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.425</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.425</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0.325</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.525</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.325</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.675</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.525</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0.36666666666666664</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.6333333333333333</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0.36666666666666664</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.5666666666666667</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.26666666666666666</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0.43333333333333335</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>0.16666666666666666</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0.7333333333333333</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0.43333333333333335</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0.4666666666666667</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0.36666666666666664</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
         <is>
           <t>0.4</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0.275</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0.125</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.575</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>0.275</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>0.325</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0.475</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0.575</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>0.575</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>0.575</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.42105263157894735</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.5789473684210527</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5263157894736842</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.631578947368421</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.13333333333333333</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5263157894736842</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.5263157894736842</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.631578947368421</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.5263157894736842</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.631578947368421</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.5789473684210527</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.5789473684210527</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.7333333333333333</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.5263157894736842</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.21052631578947367</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.631578947368421</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.26666666666666666</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.3157894736842105</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.42105263157894735</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.6666666666666666</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.2631578947368421</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4666666666666667</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.3157894736842105</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.5333333333333333</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.15789473684210525</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.47368421052631576</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.8666666666666667</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.15789473684210525</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.3684210526315789</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.12121212121212122</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.6521739130434783</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.6086956521739131</t>
+          <t>0.24242424242424243</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7391304347826086</t>
+          <t>0.48484848484848486</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.09090909090909091</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8695652173913043</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.6060606060606061</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.391304347826087</t>
+          <t>0.24242424242424243</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.8260869565217391</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.5757575757575758</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.21739130434782608</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.48484848484848486</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.5151515151515151</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.30434782608695654</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.34782608695652173</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.5151515151515151</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.30303030303030304</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.3939393939393939</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.5217391304347826</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.4782608695652174</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.34782608695652173</t>
+          <t>0.6060606060606061</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.21739130434782608</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.5652173913043478</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.21739130434782608</t>
+          <t>0.696969696969697</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.043478260869565216</t>
+          <t>0.3333333333333333</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.5652173913043478</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.08695652173913043</t>
+          <t>0.9393939393939394</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.2608695652173913</t>
+          <t>0.12121212121212122</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.6363636363636364</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.34782608695652173</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.5652173913043478</t>
+          <t>0.42424242424242425</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.43478260869565216</t>
+          <t>0.48484848484848486</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.6086956521739131</t>
+          <t>0.24242424242424243</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.5909090909090909</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>0.45454545454545453</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.6363636363636364</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.3181818181818182</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.22727272727272727</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4090909090909091</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.3181818181818182</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.5909090909090909</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.5454545454545454</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.4090909090909091</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.3181818181818182</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.6818181818181818</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.4090909090909091</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.3181818181818182</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.18181818181818182</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.45454545454545453</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.6363636363636364</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.36363636363636365</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.5454545454545454</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.4444444444444444</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.3888888888888889</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9444444444444444</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.7727272727272727</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.36363636363636365</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.4090909090909091</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0.6818181818181818</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.4090909090909091</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0.6363636363636364</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.6111111111111112</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.2777777777777778</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.5555555555555556</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.3888888888888889</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.6666666666666666</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.5555555555555556</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.3888888888888889</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.4444444444444444</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.4444444444444444</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.4444444444444444</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.2222222222222222</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.2777777777777778</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0.2222222222222222</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.5555555555555556</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0.3888888888888889</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.6111111111111112</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.6111111111111112</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0.05555555555555555</t>
-        </is>
-      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.2727272727272727</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0.16666666666666666</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.6818181818181818</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.2222222222222222</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.22727272727272727</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0.2222222222222222</t>
+          <t>0.9545454545454546</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5454545454545454</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0.1111111111111111</t>
+          <t>0.18181818181818182</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.4090909090909091</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.36363636363636365</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0.3888888888888889</t>
+          <t>0.45454545454545453</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>0.4444444444444444</t>
+          <t>0.5909090909090909</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.22727272727272727</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.5555555555555556</t>
+          <t>0.4090909090909091</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/frequency.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/GPR/frequency.xlsx
@@ -670,908 +670,908 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.23333333333333334</t>
+          <t>0.25806451612903225</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2903225806451613</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5806451612903226</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.45161290322580644</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.6451612903225806</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.13333333333333333</t>
+          <t>0.4838709677419355</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.2903225806451613</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.13333333333333333</t>
+          <t>0.25806451612903225</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.967741935483871</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2903225806451613</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.7096774193548387</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.25806451612903225</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.8064516129032258</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.4838709677419355</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.43333333333333335</t>
+          <t>0.6774193548387096</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.45161290322580644</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5483870967741935</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.45161290322580644</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.5666666666666667</t>
+          <t>0.3548387096774194</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.4838709677419355</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.16666666666666666</t>
+          <t>0.4838709677419355</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.5483870967741935</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6774193548387096</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.4838709677419355</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.4838709677419355</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.5483870967741935</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.36666666666666664</t>
+          <t>0.45161290322580644</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.36666666666666664</t>
+          <t>0.3548387096774194</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.4838709677419355</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5806451612903226</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.36666666666666664</t>
+          <t>0.3870967741935484</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.25806451612903225</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.6333333333333333</t>
+          <t>0.3225806451612903</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.36666666666666664</t>
+          <t>0.2903225806451613</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.5666666666666667</t>
+          <t>0.3870967741935484</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.1935483870967742</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.12903225806451613</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.43333333333333335</t>
+          <t>0.967741935483871</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.16666666666666666</t>
+          <t>0.6774193548387096</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.7333333333333333</t>
+          <t>0.5483870967741935</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.43333333333333335</t>
+          <t>0.45161290322580644</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.5806451612903226</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.36666666666666664</t>
+          <t>0.4838709677419355</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.3870967741935484</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.7096774193548387</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5625</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.13333333333333333</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5625</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.875</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.5625</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.5333333333333333</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5625</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.7333333333333333</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.5625</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.5333333333333333</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.26666666666666666</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.6666666666666666</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.5333333333333333</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.4666666666666667</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.3333333333333333</t>
+          <t>0.8125</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.5333333333333333</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6875</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.8666666666666667</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.75</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>0.06060606060606061</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>0.36363636363636365</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.3939393939393939</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.5757575757575758</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.6060606060606061</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.42424242424242425</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.12121212121212122</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>0.42424242424242425</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.24242424242424243</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.9696969696969697</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.3939393939393939</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.7272727272727273</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.21212121212121213</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.7575757575757576</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.5454545454545454</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.5151515151515151</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>0.48484848484848486</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.09090909090909091</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.48484848484848486</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.42424242424242425</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.3939393939393939</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.42424242424242425</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.5151515151515151</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.5151515151515151</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0.6060606060606061</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0.6060606060606061</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0.5454545454545454</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0.5757575757575758</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.5454545454545454</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>0.6060606060606061</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>0.6060606060606061</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>0.48484848484848486</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>0.5454545454545454</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0.696969696969697</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0.6060606060606061</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0.18181818181818182</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0.45454545454545453</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>0.3333333333333333</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>0.6060606060606061</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.5454545454545454</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.24242424242424243</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>0.5757575757575758</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.45454545454545453</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>0.5151515151515151</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0.3939393939393939</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0.5757575757575758</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0.6363636363636364</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0.48484848484848486</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.5151515151515151</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.5454545454545454</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.5151515151515151</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.30303030303030304</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0.3939393939393939</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.45454545454545453</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.2727272727272727</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>0.6060606060606061</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0.696969696969697</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0.3333333333333333</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>0.36363636363636365</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>0.9393939393939394</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>0.5454545454545454</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>0.12121212121212122</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>0.6363636363636364</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0.2727272727272727</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0.45454545454545453</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0.42424242424242425</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>0.48484848484848486</t>
-        </is>
-      </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.24242424242424243</t>
+          <t>0.7272727272727273</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.5909090909090909</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.45454545454545453</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.6363636363636364</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.3181818181818182</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.22727272727272727</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4090909090909091</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.3181818181818182</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.5909090909090909</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.5454545454545454</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.4090909090909091</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.3181818181818182</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.6818181818181818</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.4090909090909091</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.3181818181818182</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.18181818181818182</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.45454545454545453</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.6363636363636364</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.36363636363636365</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.5454545454545454</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0.7727272727272727</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.36363636363636365</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0.4090909090909091</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.6818181818181818</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.4090909090909091</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.6363636363636364</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0.2727272727272727</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0.5454545454545454</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0.6818181818181818</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0.3181818181818182</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0.3181818181818182</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>0.22727272727272727</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>0.9545454545454546</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>0.5454545454545454</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>0.18181818181818182</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>0.4090909090909091</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0.36363636363636365</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0.45454545454545453</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0.5909090909090909</t>
-        </is>
-      </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0.22727272727272727</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>0.4090909090909091</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
